--- a/biology/Zoologie/Clepticus_parrae/Clepticus_parrae.xlsx
+++ b/biology/Zoologie/Clepticus_parrae/Clepticus_parrae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clepticus parrae · Labre créole, Labre marbrite
-Clepticus parrae, communément nommé Labre créole ou Labre marbrite[2], est une espèce de poisson marin de la famille des Labridae.
-Le Labre créole est présent dans les eaux tropicales de la région occidentale de l'Océan Atlantique soit de la Floride aux côtes du Brésil, incluant au passage les Bermudes, le Golfe du Mexique et la Mer des Caraïbes[3].
-Sa taille maximale est de 30 cm mais la taille moyenne généralement observée est de 22 cm [3].
+Clepticus parrae, communément nommé Labre créole ou Labre marbrite, est une espèce de poisson marin de la famille des Labridae.
+Le Labre créole est présent dans les eaux tropicales de la région occidentale de l'Océan Atlantique soit de la Floride aux côtes du Brésil, incluant au passage les Bermudes, le Golfe du Mexique et la Mer des Caraïbes.
+Sa taille maximale est de 30 cm mais la taille moyenne généralement observée est de 22 cm .
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synonymes taxonomiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Brama parrae Bloch &amp; Schneider, 1801
 Brama parrae Bloch &amp; Schneider, 1801
